--- a/server/seeds/organizations.xlsx
+++ b/server/seeds/organizations.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24240" windowHeight="11595"/>
+    <workbookView windowWidth="18795" windowHeight="11595"/>
   </bookViews>
   <sheets>
     <sheet name="组织架构" sheetId="35" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="51">
   <si>
     <t>ID</t>
   </si>
@@ -34,127 +34,139 @@
     <t>00000000-0000-0000-0000-000000000000</t>
   </si>
   <si>
-    <t>股东会</t>
+    <t>总经办</t>
   </si>
   <si>
     <t>00000000-0000-0000-0000-000000000001</t>
   </si>
   <si>
-    <t>董事会</t>
+    <t>综合部</t>
   </si>
   <si>
     <t>00000000-0000-0000-0000-000000000002</t>
   </si>
   <si>
-    <t>监事会</t>
+    <t>财务部</t>
   </si>
   <si>
     <t>00000000-0000-0000-0000-000000000003</t>
   </si>
   <si>
-    <t>经理层</t>
+    <t>技术部</t>
   </si>
   <si>
     <t>00000000-0000-0000-0000-000000000004</t>
   </si>
   <si>
-    <t>综合部</t>
+    <t>商务部</t>
   </si>
   <si>
     <t>00000000-0000-0000-0000-000000000005</t>
   </si>
   <si>
-    <t>财务部</t>
+    <t>运营中心</t>
   </si>
   <si>
     <t>00000000-0000-0000-0000-000000000006</t>
   </si>
   <si>
-    <t>法务监审部</t>
+    <t>行政部</t>
   </si>
   <si>
     <t>00000000-0000-0000-0000-000000000007</t>
   </si>
   <si>
-    <t>安全管理部</t>
+    <t>人事部</t>
   </si>
   <si>
     <t>00000000-0000-0000-0000-000000000008</t>
   </si>
   <si>
-    <t>业务部</t>
+    <t>后勤保障部</t>
   </si>
   <si>
     <t>00000000-0000-0000-0000-000000000009</t>
   </si>
   <si>
-    <t>方大特钢科技股份有限公司</t>
+    <t>会计</t>
   </si>
   <si>
     <t>00000000-0000-0000-0000-000000000010</t>
   </si>
   <si>
-    <t>江西萍钢实业股份有限公司</t>
+    <t>出纳</t>
   </si>
   <si>
     <t>00000000-0000-0000-0000-000000000011</t>
   </si>
   <si>
-    <t>江西海鸥贸易有限公司</t>
+    <t>建设中心</t>
   </si>
   <si>
     <t>00000000-0000-0000-0000-000000000012</t>
   </si>
   <si>
-    <t>江西汽车板簧有限公司</t>
+    <t>研发中心</t>
   </si>
   <si>
     <t>00000000-0000-0000-0000-000000000013</t>
   </si>
   <si>
-    <t>江西世方实业有限公司</t>
+    <t>测试部</t>
   </si>
   <si>
     <t>00000000-0000-0000-0000-000000000014</t>
   </si>
   <si>
-    <t>江西锦方工贸有限公司</t>
+    <t>运维部</t>
   </si>
   <si>
     <t>00000000-0000-0000-0000-000000000015</t>
   </si>
   <si>
-    <t>宁波保税区方大钢铁贸易有限公司</t>
+    <t>商务一部</t>
   </si>
   <si>
     <t>00000000-0000-0000-0000-000000000016</t>
   </si>
   <si>
-    <t>南昌方大物业管理有限公司</t>
+    <t>商务二部</t>
   </si>
   <si>
     <t>00000000-0000-0000-0000-000000000017</t>
   </si>
   <si>
-    <t>萍乡萍钢安源钢铁有限公司</t>
+    <t>商务三部</t>
   </si>
   <si>
     <t>00000000-0000-0000-0000-000000000018</t>
   </si>
   <si>
-    <t>九江萍钢钢铁有限公司</t>
+    <t>客服一部</t>
   </si>
   <si>
     <t>00000000-0000-0000-0000-000000000019</t>
   </si>
   <si>
-    <t>宁波萍钢贸易有限公司</t>
+    <t>客服二部</t>
   </si>
   <si>
     <t>00000000-0000-0000-0000-000000000020</t>
   </si>
   <si>
-    <t>长沙赣治钢贸有限公司</t>
+    <t>客服三部</t>
+  </si>
+  <si>
+    <t>00000000-0000-0000-0000-000000000021</t>
+  </si>
+  <si>
+    <t>售前部</t>
+  </si>
+  <si>
+    <t>00000000-0000-0000-0000-000000000022</t>
+  </si>
+  <si>
+    <t>售后部</t>
   </si>
 </sst>
 </file>
@@ -162,10 +174,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -177,6 +189,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -184,24 +203,86 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -222,101 +303,32 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -329,187 +341,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -520,6 +532,60 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -547,30 +613,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -590,46 +632,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -638,131 +650,131 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1087,10 +1099,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="B17" sqref="B16 B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
@@ -1168,7 +1180,7 @@
         <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1182,7 +1194,7 @@
         <v>4</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1196,7 +1208,7 @@
         <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1210,7 +1222,7 @@
         <v>6</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1224,7 +1236,7 @@
         <v>7</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1238,7 +1250,7 @@
         <v>8</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1252,7 +1264,7 @@
         <v>9</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1266,7 +1278,7 @@
         <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1336,7 +1348,7 @@
         <v>15</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1350,7 +1362,7 @@
         <v>16</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1364,7 +1376,7 @@
         <v>17</v>
       </c>
       <c r="E19" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1378,7 +1390,7 @@
         <v>18</v>
       </c>
       <c r="E20" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1392,7 +1404,7 @@
         <v>19</v>
       </c>
       <c r="E21" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1406,7 +1418,35 @@
         <v>20</v>
       </c>
       <c r="E22" t="s">
-        <v>27</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D23">
+        <v>21</v>
+      </c>
+      <c r="E23" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" t="s">
+        <v>50</v>
+      </c>
+      <c r="D24">
+        <v>22</v>
+      </c>
+      <c r="E24" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/server/seeds/organizations.xlsx
+++ b/server/seeds/organizations.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18795" windowHeight="11595"/>
+    <workbookView windowWidth="27820" windowHeight="13020"/>
   </bookViews>
   <sheets>
     <sheet name="组织架构" sheetId="35" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65">
   <si>
     <t>ID</t>
   </si>
@@ -34,139 +34,181 @@
     <t>00000000-0000-0000-0000-000000000000</t>
   </si>
   <si>
-    <t>总经办</t>
+    <t>理论政策宣讲志愿服务支队</t>
   </si>
   <si>
     <t>00000000-0000-0000-0000-000000000001</t>
   </si>
   <si>
-    <t>综合部</t>
+    <t>教育素质提升志愿服务支队</t>
   </si>
   <si>
     <t>00000000-0000-0000-0000-000000000002</t>
   </si>
   <si>
-    <t>财务部</t>
+    <t>文化文明志愿服务支队</t>
   </si>
   <si>
     <t>00000000-0000-0000-0000-000000000003</t>
   </si>
   <si>
-    <t>技术部</t>
+    <t>科技科普志愿服务支队</t>
   </si>
   <si>
     <t>00000000-0000-0000-0000-000000000004</t>
   </si>
   <si>
-    <t>商务部</t>
+    <t>健身体育公益志愿服务支队</t>
   </si>
   <si>
     <t>00000000-0000-0000-0000-000000000005</t>
   </si>
   <si>
-    <t>运营中心</t>
+    <t>“获泽习语”志愿服务分队</t>
   </si>
   <si>
     <t>00000000-0000-0000-0000-000000000006</t>
   </si>
   <si>
-    <t>行政部</t>
+    <t>“红色讲坛”志愿服务分队</t>
   </si>
   <si>
     <t>00000000-0000-0000-0000-000000000007</t>
   </si>
   <si>
-    <t>人事部</t>
+    <t>“三农工作”志愿服务分队</t>
   </si>
   <si>
     <t>00000000-0000-0000-0000-000000000008</t>
   </si>
   <si>
-    <t>后勤保障部</t>
+    <t>“七五普法”志愿服务分队</t>
   </si>
   <si>
     <t>00000000-0000-0000-0000-000000000009</t>
   </si>
   <si>
-    <t>会计</t>
+    <t>“春泥护花”志愿服务分队</t>
   </si>
   <si>
     <t>00000000-0000-0000-0000-000000000010</t>
   </si>
   <si>
-    <t>出纳</t>
+    <t>“五老关爱”志愿服务分队</t>
   </si>
   <si>
     <t>00000000-0000-0000-0000-000000000011</t>
   </si>
   <si>
-    <t>建设中心</t>
+    <t>“心理健康”志愿服务分队</t>
   </si>
   <si>
     <t>00000000-0000-0000-0000-000000000012</t>
   </si>
   <si>
-    <t>研发中心</t>
+    <t>“非遗进校”志愿服务分队</t>
   </si>
   <si>
     <t>00000000-0000-0000-0000-000000000013</t>
   </si>
   <si>
-    <t>测试部</t>
+    <t>“经典诵读”志愿服务分队</t>
   </si>
   <si>
     <t>00000000-0000-0000-0000-000000000014</t>
   </si>
   <si>
-    <t>运维部</t>
+    <t>“欢乐获泽”志愿服务分队</t>
   </si>
   <si>
     <t>00000000-0000-0000-0000-000000000015</t>
   </si>
   <si>
-    <t>商务一部</t>
+    <t>“美家美户”志愿服务分队</t>
   </si>
   <si>
     <t>00000000-0000-0000-0000-000000000016</t>
   </si>
   <si>
-    <t>商务二部</t>
+    <t>“多彩文艺”志愿服务分队</t>
   </si>
   <si>
     <t>00000000-0000-0000-0000-000000000017</t>
   </si>
   <si>
-    <t>商务三部</t>
+    <t>“文明旅游”志愿服务分队</t>
   </si>
   <si>
     <t>00000000-0000-0000-0000-000000000018</t>
   </si>
   <si>
-    <t>客服一部</t>
+    <t>“文明出行”志愿服务分队</t>
   </si>
   <si>
     <t>00000000-0000-0000-0000-000000000019</t>
   </si>
   <si>
-    <t>客服二部</t>
+    <t>“银亮获泽”志愿服务分队</t>
   </si>
   <si>
     <t>00000000-0000-0000-0000-000000000020</t>
   </si>
   <si>
-    <t>客服三部</t>
+    <t>“科技兴农”志愿服务分队</t>
   </si>
   <si>
     <t>00000000-0000-0000-0000-000000000021</t>
   </si>
   <si>
-    <t>售前部</t>
+    <t>“科普惠民”志愿服务分队</t>
   </si>
   <si>
     <t>00000000-0000-0000-0000-000000000022</t>
   </si>
   <si>
-    <t>售后部</t>
+    <t>“劳模工匠”志愿服务分队</t>
+  </si>
+  <si>
+    <t>00000000-0000-0000-0000-000000000023</t>
+  </si>
+  <si>
+    <t>“活力阳城”志愿服务分队</t>
+  </si>
+  <si>
+    <t>00000000-0000-0000-0000-000000000024</t>
+  </si>
+  <si>
+    <t>“彩虹公益”志愿服务分队</t>
+  </si>
+  <si>
+    <t>00000000-0000-0000-0000-000000000025</t>
+  </si>
+  <si>
+    <t>“红十字”志愿服务分队</t>
+  </si>
+  <si>
+    <t>00000000-0000-0000-0000-000000000026</t>
+  </si>
+  <si>
+    <t>“爱心助残”志愿服务分队</t>
+  </si>
+  <si>
+    <t>00000000-0000-0000-0000-000000000027</t>
+  </si>
+  <si>
+    <t>“网络公益”志愿服务分队</t>
+  </si>
+  <si>
+    <t>00000000-0000-0000-0000-000000000028</t>
+  </si>
+  <si>
+    <t>“健康卫士”志愿服务分队</t>
+  </si>
+  <si>
+    <t>00000000-0000-0000-0000-000000000029</t>
+  </si>
+  <si>
+    <t>“绿色家园”志愿服务分队</t>
   </si>
 </sst>
 </file>
@@ -174,10 +216,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -189,12 +231,89 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -202,16 +321,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -225,62 +344,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -293,44 +373,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -341,187 +383,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -536,16 +578,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -574,26 +625,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -615,15 +651,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -632,149 +659,164 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -783,54 +825,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1097,15 +1139,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B16 B17"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="44.625" customWidth="1"/>
     <col min="2" max="2" width="31.625" customWidth="1"/>
@@ -1141,7 +1183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1151,11 +1193,8 @@
       <c r="D3">
         <v>1</v>
       </c>
-      <c r="E3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -1165,11 +1204,8 @@
       <c r="D4">
         <v>2</v>
       </c>
-      <c r="E4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -1179,11 +1215,8 @@
       <c r="D5">
         <v>3</v>
       </c>
-      <c r="E5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -1192,9 +1225,6 @@
       </c>
       <c r="D6">
         <v>4</v>
-      </c>
-      <c r="E6" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1222,7 +1252,7 @@
         <v>6</v>
       </c>
       <c r="E8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1236,7 +1266,7 @@
         <v>7</v>
       </c>
       <c r="E9" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1250,7 +1280,7 @@
         <v>8</v>
       </c>
       <c r="E10" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1264,7 +1294,7 @@
         <v>9</v>
       </c>
       <c r="E11" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1278,7 +1308,7 @@
         <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1292,7 +1322,7 @@
         <v>11</v>
       </c>
       <c r="E13" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1306,7 +1336,7 @@
         <v>12</v>
       </c>
       <c r="E14" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1320,7 +1350,7 @@
         <v>13</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1334,7 +1364,7 @@
         <v>14</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1348,7 +1378,7 @@
         <v>15</v>
       </c>
       <c r="E17" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1362,7 +1392,7 @@
         <v>16</v>
       </c>
       <c r="E18" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1376,7 +1406,7 @@
         <v>17</v>
       </c>
       <c r="E19" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1390,7 +1420,7 @@
         <v>18</v>
       </c>
       <c r="E20" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1404,7 +1434,7 @@
         <v>19</v>
       </c>
       <c r="E21" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1418,7 +1448,7 @@
         <v>20</v>
       </c>
       <c r="E22" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1432,7 +1462,7 @@
         <v>21</v>
       </c>
       <c r="E23" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1446,7 +1476,105 @@
         <v>22</v>
       </c>
       <c r="E24" t="s">
-        <v>15</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" t="s">
+        <v>52</v>
+      </c>
+      <c r="D25">
+        <v>23</v>
+      </c>
+      <c r="E25" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>53</v>
+      </c>
+      <c r="B26" t="s">
+        <v>54</v>
+      </c>
+      <c r="D26">
+        <v>24</v>
+      </c>
+      <c r="E26" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27" t="s">
+        <v>56</v>
+      </c>
+      <c r="D27">
+        <v>25</v>
+      </c>
+      <c r="E27" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
+        <v>57</v>
+      </c>
+      <c r="B28" t="s">
+        <v>58</v>
+      </c>
+      <c r="D28">
+        <v>26</v>
+      </c>
+      <c r="E28" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
+        <v>59</v>
+      </c>
+      <c r="B29" t="s">
+        <v>60</v>
+      </c>
+      <c r="D29">
+        <v>27</v>
+      </c>
+      <c r="E29" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
+        <v>61</v>
+      </c>
+      <c r="B30" t="s">
+        <v>62</v>
+      </c>
+      <c r="D30">
+        <v>28</v>
+      </c>
+      <c r="E30" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
+        <v>63</v>
+      </c>
+      <c r="B31" t="s">
+        <v>64</v>
+      </c>
+      <c r="D31">
+        <v>29</v>
+      </c>
+      <c r="E31" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
